--- a/eda/vlsp_chunk/test/column-2-analyze.xlsx
+++ b/eda/vlsp_chunk/test/column-2-analyze.xlsx
@@ -14,126 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>B-AP</t>
   </si>
   <si>
-    <t>A, T, X, V, N, E, L, M, CH</t>
-  </si>
-  <si>
-    <t>nhiều, lớn, đủ, cùng, gần, nghèo, đúng, cuối_cùng, khác, như</t>
+    <t>nhiều, lớn, đủ, cùng, nghèo, gần, cuối cùng, đúng, khác, như</t>
+  </si>
+  <si>
+    <t>A, T, X, V, E, N, CH, M, L</t>
   </si>
   <si>
     <t>B-NP</t>
   </si>
   <si>
+    <t>một, những, người, các, ông, anh, khi, tôi, nhiều, hai</t>
+  </si>
+  <si>
     <t>N, M, Np, P, Nc, L, A, Ny, T, X</t>
   </si>
   <si>
-    <t>một, những, người, các, ông, anh, khi, tôi, nhiều, hai</t>
-  </si>
-  <si>
     <t>B-PP</t>
   </si>
   <si>
-    <t>E, T, N, P, B, R, X, V</t>
-  </si>
-  <si>
-    <t>của, ở, trong, cho, với, để, từ, vào, đến, về</t>
-  </si>
-  <si>
-    <t>B-QP</t>
-  </si>
-  <si>
-    <t>M, A, P, L, X, N</t>
-  </si>
-  <si>
-    <t>một, năm, 1985, 1975, 8, 3, 1945, 11, 1997, 2</t>
-  </si>
-  <si>
-    <t>B-RP</t>
-  </si>
-  <si>
-    <t>R, T</t>
-  </si>
-  <si>
-    <t>Không, sao, Thậm_chí, ngay_lập_tức, tức_khắc, gần_như, biết_đâu, Thỉnh_thoảng</t>
+    <t>của, trong, ở, cho, với, để, từ, vào, đến, về</t>
+  </si>
+  <si>
+    <t>E, T, N, P, X, FW, V, R</t>
   </si>
   <si>
     <t>B-VP</t>
   </si>
   <si>
-    <t>V, A, T, E, P, X, N, B, I, L</t>
-  </si>
-  <si>
     <t>có, là, được, làm, phải, đi, nói, bị, biết, về</t>
   </si>
   <si>
+    <t>V, A, T, E, P, X, N, FW, L, I</t>
+  </si>
+  <si>
     <t>I-AP</t>
   </si>
   <si>
-    <t>A, N, T, V, P, E, M, Nu, Np, I</t>
-  </si>
-  <si>
-    <t>hơn, nhất, lâu, quá, thế, nhau, sức, vì, đẹp, để</t>
+    <t>hơn, nhất, lâu, thế, nhau, sức, quá, lè tè, đủ, hết</t>
+  </si>
+  <si>
+    <t>A, N, T, V, P, E, M, Np, Nu, I</t>
   </si>
   <si>
     <t>I-NP</t>
   </si>
   <si>
+    <t>người, này, năm, đó, ngày, nào, tháng, ấy, đồng, nhà</t>
+  </si>
+  <si>
     <t>N, Np, V, P, A, M, Nc, Nu, Ny, T</t>
   </si>
   <si>
-    <t>người, này, năm, đó, ngày, nào, tháng, ấy, đồng, nhà</t>
-  </si>
-  <si>
-    <t>I-PP</t>
-  </si>
-  <si>
-    <t>E, N, P, X, T, B</t>
-  </si>
-  <si>
-    <t>đó, trong, tại, khi, từ, đến, về, ở, thế, sau</t>
-  </si>
-  <si>
-    <t>I-QP</t>
-  </si>
-  <si>
-    <t>M, Nu, P, Y</t>
-  </si>
-  <si>
-    <t>triệu, chục, hai, trăm, 20_._000, cặp, 60, 0C, mốt, 10.000</t>
-  </si>
-  <si>
     <t>I-VP</t>
   </si>
   <si>
+    <t>biết, thấy, nhau, học, cho, là, ra, gì, được, thêm</t>
+  </si>
+  <si>
     <t>V, N, A, T, P, E, X, Np, Ny, M</t>
   </si>
   <si>
-    <t>biết, thấy, nhau, học, là, cho, được, ra, gì, thêm</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
-    <t>CH, R, C, X, T, E, P, V, N, I</t>
-  </si>
-  <si>
     <t>,, ., ", và, đã, không, :, ..., -, lại</t>
+  </si>
+  <si>
+    <t>CH, R, C, X, T, E, P, V, N, M</t>
   </si>
 </sst>
 </file>
@@ -482,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,11 +472,11 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>1583</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1583</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -522,11 +486,11 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="n">
+        <v>12302</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12165</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -536,11 +500,11 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="n">
+        <v>2716</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2680</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -550,11 +514,11 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="n">
+        <v>7420</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>137</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -564,11 +528,11 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="n">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -578,11 +542,11 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="n">
+        <v>7189</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7420</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -592,11 +556,11 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="n">
+        <v>1134</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="n">
-        <v>204</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -606,70 +570,14 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="n">
+        <v>10828</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7165</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="n">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="n">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1134</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10818</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
